--- a/biology/Botanique/Physcia_adscendens/Physcia_adscendens.xlsx
+++ b/biology/Botanique/Physcia_adscendens/Physcia_adscendens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Physcia adscendens est une espèce de lichens de la famille des Physciaceae.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dans sa publication de 1882[1], l'auteur, l'abbé Henri Olivier (d) (1849-1923), en fait la description suivante : 
+Dans sa publication de 1882, l'auteur, l'abbé Henri Olivier (d) (1849-1923), en fait la description suivante : 
 « Thalle blanc cendré ou glauque, étroitement divisé ou lacinié. Laciniures ascendantes, serrées, imbirquées, munies sur les bords de nombreux cils concolores ou un peu brunis au sommet. Apothécies nues ou pruineuses, noirâtres, à bord entier, flexueuses. »
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Commun sur les branches d'arbres et les pierres[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Commun sur les branches d'arbres et les pierres.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (8 février 2023)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (8 février 2023) :
 Physcia adscendens f. adscendens
 Physcia adscendens f. anaptychloides Nádv., 1948
 Physcia adscendens f. caesia Werner, 1937
@@ -613,10 +631,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Physcia adscendens H.Olivier, 1882[2],[1].
-Physcia adscendens a pour synonymes[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Physcia adscendens H.Olivier, 1882,.
+Physcia adscendens a pour synonymes :
 Dimelaena stellaris var. adscendens Trevis., 1868
 Parmelia stellaris var. adscendens Fr., 1845
 Physcia adscendens H. Olivier, 1882
@@ -648,7 +668,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Abbé H. Olivier, Flore analytique et dichotomique des Lichens de l'Orne et départements circonvoisins, 1882, 346 p. (lire en ligne)</t>
         </is>
